--- a/data/2018_Statistical_Annex_Table_4.xlsx
+++ b/data/2018_Statistical_Annex_Table_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mari9\Documents\STAT697_SAS_SQL\team-3_project_repo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Gao\Desktop\Ming Gao\MS Staitstics\STAT 697\team-3_project_repo\team-3_project_repo\team-3_project_repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C702CA6-3A58-4641-8FA9-B3B0096CB0ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D4668-B0DD-4A19-B1FE-638B014064DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,9 +619,6 @@
     <t>Life expectancy at birth male</t>
   </si>
   <si>
-    <t>Expected years of schooling female</t>
-  </si>
-  <si>
     <t>Expected years of schooling male</t>
   </si>
   <si>
@@ -631,10 +628,13 @@
     <t>Mean years of schooling male</t>
   </si>
   <si>
-    <t>Estimated gross national income per capita female</t>
-  </si>
-  <si>
     <t>Estimated gross national income per capita male</t>
+  </si>
+  <si>
+    <t>Expected_years_of_schooling_female</t>
+  </si>
+  <si>
+    <t>Estimated_gross_national income_per_capita_female</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
     <col min="10" max="10" width="15.7109375" style="6" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="17" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" style="6" customWidth="1"/>
     <col min="15" max="16384" width="8.85546875" style="6"/>
   </cols>
@@ -1067,22 +1067,22 @@
         <v>197</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">

--- a/data/2018_Statistical_Annex_Table_4.xlsx
+++ b/data/2018_Statistical_Annex_Table_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Gao\Desktop\Ming Gao\MS Staitstics\STAT 697\team-3_project_repo\team-3_project_repo\team-3_project_repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D4668-B0DD-4A19-B1FE-638B014064DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B5D102-1B44-421B-9F1D-57521942C487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,10 +631,10 @@
     <t>Estimated gross national income per capita male</t>
   </si>
   <si>
-    <t>Expected_years_of_schooling_female</t>
-  </si>
-  <si>
     <t>Estimated_gross_national income_per_capita_female</t>
+  </si>
+  <si>
+    <t>Year_School_Female</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
         <v>197</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>198</v>
@@ -1079,7 +1079,7 @@
         <v>200</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>201</v>
